--- a/Resultados/Material + Ano/ResNet/Tentativa 2/Do Zero.xlsx
+++ b/Resultados/Material + Ano/ResNet/Tentativa 2/Do Zero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\ResNet\Tentativa 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFE7F48-19BB-481B-99E1-7502DE9B556F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50839659-98D7-4C27-98F0-85FFB627657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="10" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -522,6 +522,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,110 +536,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -725,6 +629,102 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1215,23 +1215,23 @@
   <autoFilter ref="A1:J6" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
       <calculatedColumnFormula>'Matriz Confusão 2'!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1559,7 +1559,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1593,13 +1593,13 @@
       <c r="B2" s="2">
         <v>14.20272731781006</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="47">
         <v>0.78362685441970825</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="46">
         <v>22.926059722900391</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="47">
         <v>0.42170542478561401</v>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="47">
         <v>13.698649406433111</v>
       </c>
       <c r="C3" s="2">
@@ -1647,7 +1647,7 @@
       <c r="C5" s="2">
         <v>0.80143219232559204</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="47">
         <v>10.42210102081299</v>
       </c>
       <c r="E5" s="2">
@@ -1658,7 +1658,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="46">
         <v>20.293552398681641</v>
       </c>
       <c r="C6" s="2">
@@ -1667,7 +1667,7 @@
       <c r="D6" s="2">
         <v>14.092062950134279</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="46">
         <v>0.85271316766738892</v>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       <c r="B10" s="2">
         <v>15.041543960571291</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="46">
         <v>0.81865686178207397</v>
       </c>
       <c r="D10" s="2">
@@ -1760,23 +1760,23 @@
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="48">
         <v>9.3030242919921804</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="48">
         <v>0.84544050693511896</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1893,7 +1893,7 @@
   <sheetPr codeName="Folha12"/>
   <dimension ref="N1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -2154,13 +2154,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C2" s="37">
@@ -2180,7 +2180,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="str">
+      <c r="A3" s="50" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="41">
         <v>1</v>
       </c>
@@ -2233,7 +2233,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="41">
         <v>2</v>
       </c>
@@ -2258,7 +2258,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="41">
         <v>3</v>
       </c>
@@ -2283,7 +2283,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="41">
         <v>4</v>
       </c>
@@ -2350,7 +2350,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -2398,15 +2398,15 @@
       <c r="K1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="22">
@@ -2448,7 +2448,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="18">
         <v>0</v>
       </c>
@@ -2493,7 +2493,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="18">
         <v>0</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="18">
         <v>6</v>
       </c>
@@ -2583,7 +2583,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="18">
         <v>4</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="22">
@@ -2655,7 +2655,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="18">
         <v>0</v>
       </c>
@@ -2680,7 +2680,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="18">
         <v>0</v>
       </c>
@@ -2705,7 +2705,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="18">
         <v>4</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="48"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="18">
         <v>0</v>
       </c>
@@ -2755,7 +2755,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="22">
@@ -2779,7 +2779,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="18">
         <v>0</v>
       </c>
@@ -2804,7 +2804,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="18">
         <v>0</v>
       </c>
@@ -2829,7 +2829,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="18">
         <v>0</v>
       </c>
@@ -2854,7 +2854,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="48"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="18">
         <v>7</v>
       </c>
@@ -2879,7 +2879,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="50" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="22">
@@ -2903,7 +2903,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="18">
         <v>1</v>
       </c>
@@ -2928,7 +2928,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="48"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="18">
         <v>2</v>
       </c>
@@ -2953,7 +2953,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="48"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="18">
         <v>0</v>
       </c>
@@ -2978,7 +2978,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="48"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="18">
         <v>43</v>
       </c>
@@ -3003,7 +3003,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="22">
@@ -3027,7 +3027,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="18">
         <v>1</v>
       </c>
@@ -3052,7 +3052,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="48"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="18">
         <v>0</v>
       </c>
@@ -3077,7 +3077,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="48"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="18">
         <v>0</v>
       </c>
@@ -3102,7 +3102,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="48"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="18">
         <v>32</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="C2" s="2">
         <v>0.5</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="47">
         <v>0.16666666666666671</v>
       </c>
       <c r="E2" s="2">
@@ -3239,7 +3239,7 @@
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="46">
         <v>0.99072642967542501</v>
       </c>
       <c r="C3" s="2">
@@ -3280,7 +3280,7 @@
       <c r="B4" s="2">
         <v>0.98918083462132922</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="46">
         <v>1</v>
       </c>
       <c r="D4" s="2">
@@ -3315,16 +3315,16 @@
       <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="47">
         <v>0.86398763523956723</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="47">
         <v>0.20754716981132079</v>
       </c>
       <c r="D5" s="2">
         <v>0.19298245614035089</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="47">
         <v>0.2</v>
       </c>
       <c r="F5" s="30">
@@ -3359,10 +3359,10 @@
       <c r="C6" s="2">
         <v>0.90753424657534243</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="46">
         <v>0.94138543516873885</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="46">
         <v>0.924149956408021</v>
       </c>
       <c r="F6" s="30">

--- a/Resultados/Material + Ano/ResNet/Tentativa 2/Do Zero.xlsx
+++ b/Resultados/Material + Ano/ResNet/Tentativa 2/Do Zero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\ResNet\Tentativa 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50839659-98D7-4C27-98F0-85FFB627657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F89D21-A14F-48CB-A34B-E2AAD2720039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -273,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,8 +304,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -339,6 +345,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -405,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -437,11 +456,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -492,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -505,9 +524,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -522,26 +541,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -629,102 +738,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -845,7 +858,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6432D09F-DF5F-8B40-6837-9F95EDE7E932}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D069C11-4F63-9339-6D85-939FF76C8B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -900,7 +913,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970B6D06-AF95-6DC8-9939-27EA213D87B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE1B78A-F113-97C1-6A03-A3DFBBBB0963}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -955,7 +968,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B2F388-6B95-9AFF-4267-F4AF6596FD03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E9F1DF-4910-0A4D-9E17-6176E06CBADF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1023,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62798F14-C5C1-FAF3-4E93-3BA799A503C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1887D14-96F5-89BA-BE46-B6FB38E37756}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1065,7 +1078,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A65280-8620-FD0D-8931-83CB4A275968}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D361AB-1356-F304-2C7D-DC0E3D2F4F1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,7 +1133,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B036A56-0C04-DDA6-235E-1D734F01FE51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1655F75C-116B-74CF-5AFA-D42A7D1D5BF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1188,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA700A89-C85B-CE89-9D5F-C6B9F77CA123}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6798DA8A-9920-C22C-B30A-4452207C13AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1215,23 +1228,23 @@
   <autoFilter ref="A1:J6" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="8">
       <calculatedColumnFormula>'Matriz Confusão 2'!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="7">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="6">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1560,7 +1573,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1590,34 +1603,34 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>14.20272731781006</v>
-      </c>
-      <c r="C2" s="47">
-        <v>0.78362685441970825</v>
-      </c>
-      <c r="D2" s="46">
-        <v>22.926059722900391</v>
-      </c>
-      <c r="E2" s="47">
-        <v>0.42170542478561401</v>
+      <c r="B2" s="52">
+        <v>0.81563699245452881</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.84633249044418335</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.55133181810379028</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.85271316766738892</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="47">
-        <v>13.698649406433111</v>
+      <c r="B3" s="2">
+        <v>0.53596174716949463</v>
       </c>
       <c r="C3" s="2">
-        <v>0.80491578578948975</v>
+        <v>0.85775113105773926</v>
       </c>
       <c r="D3" s="2">
-        <v>20.776203155517582</v>
+        <v>0.49183514714241028</v>
       </c>
       <c r="E3" s="2">
-        <v>0.44496124982833862</v>
+        <v>0.86046510934829712</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1625,16 +1638,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>16.37442779541016</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.80162572860717773</v>
+        <v>0.78450238704681396</v>
+      </c>
+      <c r="C4" s="53">
+        <v>0.84420359134674072</v>
       </c>
       <c r="D4" s="2">
-        <v>13.94796085357666</v>
+        <v>0.59931010007858276</v>
       </c>
       <c r="E4" s="2">
-        <v>0.71627908945083618</v>
+        <v>0.8620154857635498</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1642,33 +1655,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>18.82334136962891</v>
+        <v>0.55141597986221313</v>
       </c>
       <c r="C5" s="2">
-        <v>0.80143219232559204</v>
-      </c>
-      <c r="D5" s="47">
-        <v>10.42210102081299</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.77829456329345703</v>
+        <v>0.86123478412628174</v>
+      </c>
+      <c r="D5" s="52">
+        <v>0.73834216594696045</v>
+      </c>
+      <c r="E5" s="53">
+        <v>0.73488372564315796</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="46">
-        <v>20.293552398681641</v>
+      <c r="B6" s="2">
+        <v>0.5134580135345459</v>
       </c>
       <c r="C6" s="2">
-        <v>0.79659378528594971</v>
+        <v>0.85988003015518188</v>
       </c>
       <c r="D6" s="2">
-        <v>14.092062950134279</v>
-      </c>
-      <c r="E6" s="46">
-        <v>0.85271316766738892</v>
+        <v>0.44789385795593262</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.86511629819869995</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1676,16 +1689,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>19.355863571166989</v>
+        <v>0.44269579648971558</v>
       </c>
       <c r="C7" s="2">
-        <v>0.80143219232559204</v>
+        <v>0.86762142181396484</v>
       </c>
       <c r="D7" s="2">
-        <v>12.27078914642334</v>
+        <v>0.43866780400276179</v>
       </c>
       <c r="E7" s="2">
-        <v>0.84341084957122803</v>
+        <v>0.86666667461395264</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1693,16 +1706,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>18.818960189819339</v>
+        <v>0.42346277832984919</v>
       </c>
       <c r="C8" s="2">
-        <v>0.80452871322631836</v>
+        <v>0.86626666784286499</v>
       </c>
       <c r="D8" s="2">
-        <v>14.55982780456543</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.83100777864456177</v>
+        <v>0.40973341464996338</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0.86976742744445801</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1710,33 +1723,33 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>19.439739227294918</v>
+        <v>0.42206528782844538</v>
       </c>
       <c r="C9" s="2">
-        <v>0.8033674955368042</v>
+        <v>0.87013739347457886</v>
       </c>
       <c r="D9" s="2">
-        <v>12.747200965881349</v>
+        <v>0.40741544961929321</v>
       </c>
       <c r="E9" s="2">
-        <v>0.84341084957122803</v>
+        <v>0.86666667461395264</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>15.041543960571291</v>
-      </c>
-      <c r="C10" s="46">
-        <v>0.81865686178207397</v>
-      </c>
-      <c r="D10" s="2">
-        <v>12.70918083190918</v>
+      <c r="B10" s="53">
+        <v>0.40130078792572021</v>
+      </c>
+      <c r="C10" s="52">
+        <v>0.87613701820373535</v>
+      </c>
+      <c r="D10" s="53">
+        <v>0.38770806789398188</v>
       </c>
       <c r="E10" s="2">
-        <v>0.8217054009437561</v>
+        <v>0.86976742744445801</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1744,16 +1757,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>15.915840148925779</v>
+        <v>0.49557730555534357</v>
       </c>
       <c r="C11" s="2">
-        <v>0.81730210781097412</v>
+        <v>0.86994385719299316</v>
       </c>
       <c r="D11" s="2">
-        <v>10.78005790710449</v>
+        <v>0.42699036002159119</v>
       </c>
       <c r="E11" s="2">
-        <v>0.83100777864456177</v>
+        <v>0.86821705102920532</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1761,7 +1774,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="48">
-        <v>9.3030242919921804</v>
+        <v>0.39954149723052901</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48"/>
@@ -1772,7 +1785,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="48">
-        <v>0.84544050693511896</v>
+        <v>0.87635236978530795</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
@@ -1784,19 +1797,19 @@
       </c>
       <c r="B14" s="5">
         <f>MIN(B2:B11)</f>
-        <v>13.698649406433111</v>
+        <v>0.40130078792572021</v>
       </c>
       <c r="C14" s="5">
         <f>MIN(C2:C11)</f>
-        <v>0.78362685441970825</v>
+        <v>0.84420359134674072</v>
       </c>
       <c r="D14" s="5">
         <f>MIN(D2:D11)</f>
-        <v>10.42210102081299</v>
+        <v>0.38770806789398188</v>
       </c>
       <c r="E14" s="5">
         <f>MIN(E2:E11)</f>
-        <v>0.42170542478561401</v>
+        <v>0.73488372564315796</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1805,19 +1818,19 @@
       </c>
       <c r="B15" s="6">
         <f>MAX(B2:B11)</f>
-        <v>20.293552398681641</v>
+        <v>0.81563699245452881</v>
       </c>
       <c r="C15" s="6">
         <f>MAX(C2:C11)</f>
-        <v>0.81865686178207397</v>
+        <v>0.87613701820373535</v>
       </c>
       <c r="D15" s="6">
         <f>MAX(D2:D11)</f>
-        <v>22.926059722900391</v>
+        <v>0.73834216594696045</v>
       </c>
       <c r="E15" s="6">
         <f>MAX(E2:E11)</f>
-        <v>0.85271316766738892</v>
+        <v>0.86976742744445801</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1826,19 +1839,19 @@
       </c>
       <c r="B16">
         <f>INDEX($A$2:$A$11,MATCH(B14,B2:B11,0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <f>INDEX($A$2:$A$11,MATCH(C14,C2:C11,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <f>INDEX($A$2:$A$11,MATCH(D14,D2:D11,0))</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <f>INDEX($A$2:$A$11,MATCH(E14,E2:E11,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1847,7 +1860,7 @@
       </c>
       <c r="B17">
         <f>INDEX($A$2:$A$11,MATCH(B15,B2:B11,0))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <f>INDEX($A$2:$A$11,MATCH(C15,C2:C11,0))</f>
@@ -1855,11 +1868,11 @@
       </c>
       <c r="D17">
         <f>INDEX($A$2:$A$11,MATCH(D15,D2:D11,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <f>INDEX($A$2:$A$11,MATCH(E15,E2:E11,0))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="18">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3" spans="14:15" x14ac:dyDescent="0.35">
@@ -1931,7 +1944,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="18">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5" spans="14:15" x14ac:dyDescent="0.35">
@@ -1939,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="42">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6" spans="14:15" x14ac:dyDescent="0.35">
@@ -1947,7 +1960,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="42">
-        <v>0.69</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="7" spans="14:15" x14ac:dyDescent="0.35">
@@ -2113,7 +2126,9 @@
   <sheetPr codeName="Folha2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2128,7 +2143,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2141,10 +2156,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4733B8BE-9A12-402E-83C5-F44A953F201E}">
   <sheetPr codeName="Folha4"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2153,7 +2168,7 @@
     <col min="2" max="2" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C1" s="49" t="s">
         <v>35</v>
       </c>
@@ -2162,7 +2177,7 @@
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C2" s="37">
         <v>0</v>
       </c>
@@ -2179,7 +2194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
@@ -2188,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2197,42 +2212,48 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <f>SUM(C3:G3)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50"/>
       <c r="B4" s="41">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50"/>
       <c r="B5" s="41">
         <v>2</v>
@@ -2244,51 +2265,57 @@
         <v>0</v>
       </c>
       <c r="E5" s="38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50"/>
       <c r="B6" s="41">
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="38">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
-        <v>11</v>
-      </c>
       <c r="G6" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="47">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50"/>
       <c r="B7" s="41">
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2297,36 +2324,39 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G7" s="38">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J7" s="47">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C8">
         <f>SUM(C3:C7)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:G8" si="1">SUM(D3:D7)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>584</v>
+        <v>625</v>
       </c>
       <c r="H8">
         <f>SUM(H3:H7)</f>
@@ -2351,7 +2381,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2410,14 +2440,14 @@
         <v>30</v>
       </c>
       <c r="B2" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
       </c>
       <c r="D2" s="23">
         <f>B2/SUM(B2:B6)</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E2" s="43"/>
       <c r="F2" s="25" t="str">
@@ -2434,7 +2464,7 @@
       <c r="K2" s="21"/>
       <c r="M2" s="18">
         <f>B2+B8+B14+B20+B26</f>
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>28</v>
@@ -2444,7 +2474,7 @@
       </c>
       <c r="P2" s="28">
         <f>M2/O2</f>
-        <v>0.84544049459041726</v>
+        <v>0.87635239567233381</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2489,7 +2519,7 @@
       </c>
       <c r="O3" s="45">
         <f>M3/$M$6</f>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2527,20 +2557,20 @@
       </c>
       <c r="M4" s="18">
         <f>COUNTIFS(D2:D30,N4,B2:B30,"&lt;&gt;0")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>41</v>
       </c>
       <c r="O4" s="45">
         <f t="shared" ref="O4:O5" si="4">M4/$M$6</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50"/>
       <c r="B5" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" s="18">
         <v>3</v>
@@ -2551,7 +2581,7 @@
       </c>
       <c r="E5" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>50%</v>
+        <v>8%</v>
       </c>
       <c r="F5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2572,20 +2602,20 @@
       </c>
       <c r="M5" s="18">
         <f>COUNTIFS(D2:D30,N5,B2:B30,"&lt;&gt;0")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>44</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="4"/>
-        <v>0.44444444444444442</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50"/>
       <c r="B6" s="18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="18">
         <v>4</v>
@@ -2596,7 +2626,7 @@
       </c>
       <c r="E6" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>33%</v>
+        <v>58%</v>
       </c>
       <c r="F6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2617,7 +2647,7 @@
       </c>
       <c r="M6" s="9">
         <f>SUM(M3:M5)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -2635,14 +2665,14 @@
         <v>31</v>
       </c>
       <c r="B8" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="22">
         <v>1</v>
       </c>
       <c r="D8" s="23">
         <f>B8/SUM(B8:B12)</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="25" t="str">
@@ -2657,7 +2687,7 @@
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50"/>
       <c r="B9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="18">
         <v>0</v>
@@ -2668,7 +2698,7 @@
       </c>
       <c r="E9" s="19" t="str">
         <f>ROUND(B9/SUM($B$8:$B$12)*100,0) &amp;"%"</f>
-        <v>0%</v>
+        <v>20%</v>
       </c>
       <c r="F9" s="26" t="str">
         <f t="shared" ref="F9:F12" si="6">VLOOKUP(C9,$I$1:$K$6,2,FALSE)</f>
@@ -2707,7 +2737,7 @@
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50"/>
       <c r="B11" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" s="18">
         <v>3</v>
@@ -2718,7 +2748,7 @@
       </c>
       <c r="E11" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>80%</v>
+        <v>20%</v>
       </c>
       <c r="F11" s="26" t="str">
         <f t="shared" si="6"/>
@@ -2732,7 +2762,7 @@
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50"/>
       <c r="B12" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="18">
         <v>4</v>
@@ -2743,7 +2773,7 @@
       </c>
       <c r="E12" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>0%</v>
+        <v>60%</v>
       </c>
       <c r="F12" s="26" t="str">
         <f t="shared" si="6"/>
@@ -2759,14 +2789,14 @@
         <v>32</v>
       </c>
       <c r="B14" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="22">
         <v>2</v>
       </c>
       <c r="D14" s="23">
         <f>B14/SUM(B14:B18)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="25" t="str">
@@ -2856,7 +2886,7 @@
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="50"/>
       <c r="B18" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="18">
         <v>4</v>
@@ -2867,7 +2897,7 @@
       </c>
       <c r="E18" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>70%</v>
+        <v>60%</v>
       </c>
       <c r="F18" s="26" t="str">
         <f t="shared" si="10"/>
@@ -2883,14 +2913,14 @@
         <v>39</v>
       </c>
       <c r="B20" s="22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C20" s="22">
         <v>3</v>
       </c>
       <c r="D20" s="23">
         <f>B20/SUM(B20:B24)</f>
-        <v>0.19298245614035087</v>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="25" t="str">
@@ -2905,7 +2935,7 @@
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="50"/>
       <c r="B21" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="18">
         <v>0</v>
@@ -2916,7 +2946,7 @@
       </c>
       <c r="E21" s="19" t="str">
         <f>ROUND(B21/SUM($B$20:$B$24)*100,0) &amp;"%"</f>
-        <v>2%</v>
+        <v>5%</v>
       </c>
       <c r="F21" s="26" t="str">
         <f t="shared" ref="F21:F24" si="14">VLOOKUP(C21,$I$1:$K$6,2,FALSE)</f>
@@ -2930,7 +2960,7 @@
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="50"/>
       <c r="B22" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" s="18">
         <v>1</v>
@@ -2941,7 +2971,7 @@
       </c>
       <c r="E22" s="19" t="str">
         <f t="shared" ref="E22:E24" si="16">ROUND(B22/SUM($B$20:$B$24)*100,0) &amp;"%"</f>
-        <v>4%</v>
+        <v>0%</v>
       </c>
       <c r="F22" s="26" t="str">
         <f t="shared" si="14"/>
@@ -2980,7 +3010,7 @@
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="50"/>
       <c r="B24" s="18">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C24" s="18">
         <v>4</v>
@@ -2991,7 +3021,7 @@
       </c>
       <c r="E24" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>75%</v>
+        <v>91%</v>
       </c>
       <c r="F24" s="26" t="str">
         <f t="shared" si="14"/>
@@ -3007,14 +3037,14 @@
         <v>40</v>
       </c>
       <c r="B26" s="22">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="C26" s="22">
         <v>4</v>
       </c>
       <c r="D26" s="44">
         <f>B26/SUM(B26:B30)</f>
-        <v>0.94138543516873885</v>
+        <v>0.98934280639431615</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="25" t="str">
@@ -3029,7 +3059,7 @@
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="50"/>
       <c r="B27" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="18">
         <v>0</v>
@@ -3040,7 +3070,7 @@
       </c>
       <c r="E27" s="19" t="str">
         <f>ROUND(B27/SUM($B$26:$B$30)*100,1) &amp;"%"</f>
-        <v>0,2%</v>
+        <v>0,4%</v>
       </c>
       <c r="F27" s="26" t="str">
         <f t="shared" ref="F27:F30" si="18">VLOOKUP(C27,$I$1:$K$6,2,FALSE)</f>
@@ -3104,7 +3134,7 @@
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="50"/>
       <c r="B30" s="18">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C30" s="18">
         <v>3</v>
@@ -3115,7 +3145,7 @@
       </c>
       <c r="E30" s="19" t="str">
         <f t="shared" si="20"/>
-        <v>5,7%</v>
+        <v>0,7%</v>
       </c>
       <c r="F30" s="26" t="str">
         <f t="shared" si="18"/>
@@ -3146,7 +3176,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3202,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.98145285935085003</v>
+        <v>0.97836166924265844</v>
       </c>
       <c r="C2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="47">
-        <v>0.16666666666666671</v>
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.33333333333333331</v>
       </c>
       <c r="E2" s="2">
-        <v>0.25</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="F2" s="30">
         <f>'Matriz Confusão 2'!H3</f>
@@ -3223,11 +3253,11 @@
       </c>
       <c r="H2" s="10" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</f>
-        <v>Médio</v>
+        <v>Baixo</v>
       </c>
       <c r="I2" s="10" t="str" cm="1">
         <f t="array" ref="I2">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</f>
-        <v>Muito Baixo</v>
+        <v>Baixo</v>
       </c>
       <c r="J2" s="16" t="str" cm="1">
         <f t="array" ref="J2">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</f>
@@ -3239,17 +3269,17 @@
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="46">
-        <v>0.99072642967542501</v>
+      <c r="B3" s="2">
+        <v>0.99227202472952092</v>
       </c>
       <c r="C3" s="2">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" s="30">
         <f>'Matriz Confusão 2'!H4</f>
@@ -3261,15 +3291,15 @@
       </c>
       <c r="H3" s="10" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.IFS(AND(C3&lt;=1,C3&gt;=0.95),"Muito Alta",AND(C3&lt;0.95,C3&gt;=0.9),"Alta",AND(C3&lt;0.9,C3&gt;=0.7),"Boa",AND(C3&lt;0.7,C3&gt;=0.5),"Médio",AND(C3&lt;0.5,C3&gt;=0.25),"Baixo",AND(C3&lt;0.25,C3&gt;0),"Muito Baixo",C3=0,"Zero")</f>
-        <v>Baixo</v>
+        <v>Zero</v>
       </c>
       <c r="I3" s="10" t="str" cm="1">
         <f t="array" ref="I3">_xlfn.IFS(AND(D3&lt;=1,D3&gt;=0.95),"Muito Alta",AND(D3&lt;0.95,D3&gt;=0.9),"Alta",AND(D3&lt;0.9,D3&gt;=0.7),"Boa",AND(D3&lt;0.7,D3&gt;=0.5),"Médio",AND(D3&lt;0.5,D3&gt;=0.25),"Baixo",AND(D3&lt;0.25,D3&gt;0),"Muito Baixo",D3=0,"Zero")</f>
-        <v>Muito Baixo</v>
+        <v>Zero</v>
       </c>
       <c r="J3" s="16" t="str" cm="1">
         <f t="array" ref="J3">_xlfn.IFS(AND(E3&lt;=1,E3&gt;=0.95),"Muito Alta",AND(E3&lt;0.95,E3&gt;=0.9),"Alta",AND(E3&lt;0.9,E3&gt;=0.7),"Boa",AND(E3&lt;0.7,E3&gt;=0.5),"Médio",AND(E3&lt;0.5,E3&gt;=0.25),"Baixo",AND(E3&lt;0.25,E3&gt;0),"Muito Baixo",E3=0,"Zero")</f>
-        <v>Baixo</v>
+        <v>Zero</v>
       </c>
       <c r="K3"/>
     </row>
@@ -3277,17 +3307,17 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.98918083462132922</v>
+      <c r="B4" s="46">
+        <v>0.99072642967542501</v>
       </c>
       <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.46153846153846151</v>
+      <c r="D4" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.57142857142857151</v>
       </c>
       <c r="F4" s="30">
         <f>'Matriz Confusão 2'!H5</f>
@@ -3307,7 +3337,7 @@
       </c>
       <c r="J4" s="16" t="str" cm="1">
         <f t="array" ref="J4">_xlfn.IFS(AND(E4&lt;=1,E4&gt;=0.95),"Muito Alta",AND(E4&lt;0.95,E4&gt;=0.9),"Alta",AND(E4&lt;0.9,E4&gt;=0.7),"Boa",AND(E4&lt;0.7,E4&gt;=0.5),"Médio",AND(E4&lt;0.5,E4&gt;=0.25),"Baixo",AND(E4&lt;0.25,E4&gt;0),"Muito Baixo",E4=0,"Zero")</f>
-        <v>Baixo</v>
+        <v>Médio</v>
       </c>
       <c r="K4"/>
     </row>
@@ -3315,17 +3345,17 @@
       <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="B5" s="47">
-        <v>0.86398763523956723</v>
-      </c>
-      <c r="C5" s="47">
-        <v>0.20754716981132079</v>
+      <c r="B5" s="2">
+        <v>0.90571870170015456</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.25</v>
       </c>
       <c r="D5" s="2">
-        <v>0.19298245614035089</v>
-      </c>
-      <c r="E5" s="47">
-        <v>0.2</v>
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.1538461538461528E-2</v>
       </c>
       <c r="F5" s="30">
         <f>'Matriz Confusão 2'!H6</f>
@@ -3333,11 +3363,11 @@
       </c>
       <c r="G5" s="18" t="str" cm="1">
         <f t="array" ref="G5">_xlfn.IFS(AND(B5&lt;=1,B5&gt;=0.95),"Muito Alta",AND(B5&lt;0.95,B5&gt;=0.9),"Alta",AND(B5&lt;0.9,B5&gt;=0.7),"Boa",AND(B5&lt;0.7,B5&gt;=0.5),"Médio",AND(B5&lt;0.5,B5&gt;=0.25),"Baixo",AND(B5&lt;0.25,B5&gt;0),"Muito Baixo",B5=0,"Zero")</f>
-        <v>Boa</v>
+        <v>Alta</v>
       </c>
       <c r="H5" s="18" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(AND(C5&lt;=1,C5&gt;=0.95),"Muito Alta",AND(C5&lt;0.95,C5&gt;=0.9),"Alta",AND(C5&lt;0.9,C5&gt;=0.7),"Boa",AND(C5&lt;0.7,C5&gt;=0.5),"Médio",AND(C5&lt;0.5,C5&gt;=0.25),"Baixo",AND(C5&lt;0.25,C5&gt;0),"Muito Baixo",C5=0,"Zero")</f>
-        <v>Muito Baixo</v>
+        <v>Baixo</v>
       </c>
       <c r="I5" s="18" t="str" cm="1">
         <f t="array" ref="I5">_xlfn.IFS(AND(D5&lt;=1,D5&gt;=0.95),"Muito Alta",AND(D5&lt;0.95,D5&gt;=0.9),"Alta",AND(D5&lt;0.9,D5&gt;=0.7),"Boa",AND(D5&lt;0.7,D5&gt;=0.5),"Médio",AND(D5&lt;0.5,D5&gt;=0.25),"Baixo",AND(D5&lt;0.25,D5&gt;0),"Muito Baixo",D5=0,"Zero")</f>
@@ -3354,16 +3384,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.86553323029366303</v>
+        <v>0.88562596599690879</v>
       </c>
       <c r="C6" s="2">
-        <v>0.90753424657534243</v>
-      </c>
-      <c r="D6" s="46">
-        <v>0.94138543516873885</v>
-      </c>
-      <c r="E6" s="46">
-        <v>0.924149956408021</v>
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.98934280639431615</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.93771043771043772</v>
       </c>
       <c r="F6" s="30">
         <f>'Matriz Confusão 2'!H7</f>
@@ -3375,11 +3405,11 @@
       </c>
       <c r="H6" s="18" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(AND(C6&lt;=1,C6&gt;=0.95),"Muito Alta",AND(C6&lt;0.95,C6&gt;=0.9),"Alta",AND(C6&lt;0.9,C6&gt;=0.7),"Boa",AND(C6&lt;0.7,C6&gt;=0.5),"Médio",AND(C6&lt;0.5,C6&gt;=0.25),"Baixo",AND(C6&lt;0.25,C6&gt;0),"Muito Baixo",C6=0,"Zero")</f>
-        <v>Alta</v>
+        <v>Boa</v>
       </c>
       <c r="I6" s="18" t="str" cm="1">
         <f t="array" ref="I6">_xlfn.IFS(AND(D6&lt;=1,D6&gt;=0.95),"Muito Alta",AND(D6&lt;0.95,D6&gt;=0.9),"Alta",AND(D6&lt;0.9,D6&gt;=0.7),"Boa",AND(D6&lt;0.7,D6&gt;=0.5),"Médio",AND(D6&lt;0.5,D6&gt;=0.25),"Baixo",AND(D6&lt;0.25,D6&gt;0),"Muito Baixo",D6=0,"Zero")</f>
-        <v>Alta</v>
+        <v>Muito Alta</v>
       </c>
       <c r="J6" s="18" t="str" cm="1">
         <f t="array" ref="J6">_xlfn.IFS(AND(E6&lt;=1,E6&gt;=0.95),"Muito Alta",AND(E6&lt;0.95,E6&gt;=0.9),"Alta",AND(E6&lt;0.9,E6&gt;=0.7),"Boa",AND(E6&lt;0.7,E6&gt;=0.5),"Médio",AND(E6&lt;0.5,E6&gt;=0.25),"Baixo",AND(E6&lt;0.25,E6&gt;0),"Muito Baixo",E6=0,"Zero")</f>
@@ -3393,19 +3423,19 @@
       </c>
       <c r="B7" s="5">
         <f>MIN(B2:B6)</f>
-        <v>0.86398763523956723</v>
+        <v>0.88562596599690879</v>
       </c>
       <c r="C7" s="5">
         <f>MIN(C2:C6)</f>
-        <v>0.20754716981132079</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5">
         <f>MIN(D2:D6)</f>
-        <v>0.16666666666666671</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
         <f>MIN(E2:E6)</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <f>COUNTIF(G2:G6,$K$7)</f>
@@ -3417,7 +3447,7 @@
       </c>
       <c r="I7" s="9">
         <f>COUNTIF(I2:I6,$K$7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="9">
         <f>COUNTIF(J2:J6,$K$7)</f>
@@ -3433,7 +3463,7 @@
       </c>
       <c r="B8" s="6">
         <f>MAX(B2:B6)</f>
-        <v>0.99072642967542501</v>
+        <v>0.99227202472952092</v>
       </c>
       <c r="C8" s="6">
         <f>MAX(C2:C6)</f>
@@ -3441,23 +3471,23 @@
       </c>
       <c r="D8" s="6">
         <f>MAX(D2:D6)</f>
-        <v>0.94138543516873885</v>
+        <v>0.98934280639431615</v>
       </c>
       <c r="E8" s="6">
         <f>MAX(E2:E6)</f>
-        <v>0.924149956408021</v>
+        <v>0.93771043771043772</v>
       </c>
       <c r="G8" s="9">
         <f>COUNTIF(G2:G6,$K$8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="9">
         <f>COUNTIF(H2:H6,$K$8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="9">
         <f>COUNTIF(I2:I6,$K$8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="9">
         <f>COUNTIF(J2:J6,$K$8)</f>
@@ -3477,23 +3507,23 @@
       </c>
       <c r="C9">
         <f>COUNTIF(C2:C6,"=0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f>COUNTIF(D2:D6,"=0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f>COUNTIF(E2:E6,"=0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="9">
         <f>COUNTIF(G2:G6,$K$9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="9">
         <f>COUNTIF(H2:H6,$K$9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9">
         <f>COUNTIF(I2:I6,$K$9)</f>
@@ -3533,7 +3563,7 @@
       </c>
       <c r="H10" s="9">
         <f>COUNTIF(H2:H6,$K$10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9">
         <f>COUNTIF(I2:I6,$K$10)</f>
@@ -3541,7 +3571,7 @@
       </c>
       <c r="J10" s="9">
         <f>COUNTIF(J2:J6,$K$10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="33" t="s">
         <v>15</v>
@@ -3553,19 +3583,19 @@
       </c>
       <c r="B11" s="5">
         <f>INDEX($A$2:$A$6,MATCH(B7,B2:B6,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5">
         <f>INDEX($A$2:$A$6,MATCH(C7,C2:C6,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5">
         <f>INDEX($A$2:$A$6,MATCH(D7,D2:D6,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
         <f>INDEX($A$2:$A$6,MATCH(E7,E2:E6,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="9">
         <f>COUNTIF(G2:G6,$K$11)</f>
@@ -3573,15 +3603,15 @@
       </c>
       <c r="H11" s="9">
         <f>COUNTIF(H2:H6,$K$11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="9">
         <f>COUNTIF(I2:I6,$K$11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="9">
         <f>COUNTIF(J2:J6,$K$11)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>18</v>
@@ -3614,11 +3644,11 @@
       </c>
       <c r="H12" s="9">
         <f>COUNTIF(H2:H6,$K$12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="9">
         <f>COUNTIF(I2:I6,$K$12)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" s="9">
         <f>COUNTIF(J2:J6,$K$12)</f>

--- a/Resultados/Material + Ano/ResNet/Tentativa 2/Do Zero.xlsx
+++ b/Resultados/Material + Ano/ResNet/Tentativa 2/Do Zero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\ResNet\Tentativa 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F89D21-A14F-48CB-A34B-E2AAD2720039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C58112-9F56-450F-B35C-E5B39666D1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -543,6 +543,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,102 +557,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -725,6 +637,94 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1228,23 +1228,23 @@
   <autoFilter ref="A1:J6" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
       <calculatedColumnFormula>'Matriz Confusão 2'!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1572,7 +1572,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1603,7 +1603,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="48">
         <v>0.81563699245452881</v>
       </c>
       <c r="C2" s="2">
@@ -1640,7 +1640,7 @@
       <c r="B4" s="2">
         <v>0.78450238704681396</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="49">
         <v>0.84420359134674072</v>
       </c>
       <c r="D4" s="2">
@@ -1660,10 +1660,10 @@
       <c r="C5" s="2">
         <v>0.86123478412628174</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="48">
         <v>0.73834216594696045</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="49">
         <v>0.73488372564315796</v>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       <c r="D8" s="2">
         <v>0.40973341464996338</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="48">
         <v>0.86976742744445801</v>
       </c>
     </row>
@@ -1739,13 +1739,13 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="49">
         <v>0.40130078792572021</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="48">
         <v>0.87613701820373535</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="49">
         <v>0.38770806789398188</v>
       </c>
       <c r="E10" s="2">
@@ -1773,23 +1773,23 @@
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="50">
         <v>0.39954149723052901</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="50">
         <v>0.87635236978530795</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -2169,13 +2169,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C2" s="37">
@@ -2195,7 +2195,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="str">
+      <c r="A3" s="52" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="41">
         <v>1</v>
       </c>
@@ -2254,7 +2254,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="41">
         <v>2</v>
       </c>
@@ -2282,7 +2282,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="41">
         <v>3</v>
       </c>
@@ -2310,7 +2310,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="41">
         <v>4</v>
       </c>
@@ -2381,7 +2381,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2390,7 +2390,7 @@
     <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.90625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.54296875" customWidth="1"/>
@@ -2399,7 +2399,7 @@
     <col min="11" max="11" width="13.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7265625" style="9"/>
     <col min="13" max="13" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.7265625" style="9"/>
   </cols>
@@ -2428,15 +2428,15 @@
       <c r="K1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="22">
@@ -2478,7 +2478,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="18">
         <v>0</v>
       </c>
@@ -2523,7 +2523,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="18">
         <v>0</v>
       </c>
@@ -2568,7 +2568,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="18">
         <v>1</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="18">
         <v>7</v>
       </c>
@@ -2661,7 +2661,7 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="22">
@@ -2685,7 +2685,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="18">
         <v>1</v>
       </c>
@@ -2710,7 +2710,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="18">
         <v>0</v>
       </c>
@@ -2735,7 +2735,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="18">
         <v>1</v>
       </c>
@@ -2760,7 +2760,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="18">
         <v>3</v>
       </c>
@@ -2785,7 +2785,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="22">
@@ -2809,7 +2809,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="18">
         <v>0</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="18">
         <v>0</v>
       </c>
@@ -2859,7 +2859,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="18">
         <v>0</v>
       </c>
@@ -2884,7 +2884,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="18">
         <v>6</v>
       </c>
@@ -2909,7 +2909,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="22">
@@ -2933,7 +2933,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="50"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="18">
         <v>3</v>
       </c>
@@ -2958,7 +2958,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="50"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="18">
         <v>0</v>
       </c>
@@ -2983,7 +2983,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="50"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="18">
         <v>0</v>
       </c>
@@ -3008,7 +3008,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="18">
         <v>52</v>
       </c>
@@ -3033,7 +3033,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="22">
@@ -3057,7 +3057,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="50"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="18">
         <v>2</v>
       </c>
@@ -3082,7 +3082,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="50"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="18">
         <v>0</v>
       </c>
@@ -3107,7 +3107,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="50"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="18">
         <v>0</v>
       </c>
@@ -3132,7 +3132,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="50"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="18">
         <v>4</v>
       </c>
@@ -3176,25 +3176,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="31" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="39">
         <v>2</v>
       </c>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>0</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="G13">
         <f>SUM(G7:G12)+B9</f>
